--- a/Lab1ResearchInfoByDifferCoding/Curv.xlsx
+++ b/Lab1ResearchInfoByDifferCoding/Curv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Мені 13 минало</t>
   </si>
@@ -440,11 +440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="91112576"/>
-        <c:axId val="91114112"/>
+        <c:axId val="82068608"/>
+        <c:axId val="82070144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91112576"/>
+        <c:axId val="82068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91114112"/>
+        <c:crossAx val="82070144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -461,7 +461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91114112"/>
+        <c:axId val="82070144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91112576"/>
+        <c:crossAx val="82068608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -626,11 +626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42093952"/>
-        <c:axId val="109802624"/>
+        <c:axId val="82103296"/>
+        <c:axId val="82113280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42093952"/>
+        <c:axId val="82103296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109802624"/>
+        <c:crossAx val="82113280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,7 +647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109802624"/>
+        <c:axId val="82113280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +658,244 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42093952"/>
+        <c:crossAx val="82103296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.txt base64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$23:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Мені 13 минало</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Казка про ріпку</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PCI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$23:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Мені 13 минало</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Казка про ріпку</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PCI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.bz2 base64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$23:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Мені 13 минало</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Казка про ріпку</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PCI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="78686848"/>
+        <c:axId val="78692736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78686848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78692736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78692736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78686848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,13 +953,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -737,6 +974,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1032,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D29"/>
+  <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,40 +1463,26 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>743</v>
-      </c>
-      <c r="C26">
-        <v>980</v>
+        <v>631</v>
+      </c>
+      <c r="C26" s="1">
+        <v>830</v>
       </c>
       <c r="D26" s="1">
-        <v>1449</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>631</v>
-      </c>
-      <c r="C27" s="1">
-        <v>830</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1236</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
